--- a/EERIE_Pre.xlsx
+++ b/EERIE_Pre.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1010,8 +1010,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1058,7 +1058,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
